--- a/data_processed/20250904/BTCUSDQMOMENT_20250904.xlsx
+++ b/data_processed/20250904/BTCUSDQMOMENT_20250904.xlsx
@@ -864,10 +864,18 @@
       <c r="H12" t="n">
         <v>5.963606545374893</v>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>0.2473204566274169</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.008750979825177335</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.8089196720461374</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.101860250809634</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -898,10 +906,18 @@
       <c r="H13" t="n">
         <v>16.54907703958716</v>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>0.2666942839323744</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.008502164597911139</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.2680339375067249</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.532865872683723</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -932,10 +948,18 @@
       <c r="H14" t="n">
         <v>6.484052199504728</v>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>0.3380914860526574</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.03257293951794873</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.009832860521988</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.815720396193842</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -966,10 +990,18 @@
       <c r="H15" t="n">
         <v>6.861491321269101</v>
       </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>0.3951692466145622</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.04746688694852878</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.569185250568909</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.739304231923645</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1036,10 +1068,18 @@
       <c r="H17" t="n">
         <v>7.131555547897904</v>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>0.4561555070866828</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.06756879384457612</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4030054558325659</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.590884813525737</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">

--- a/data_processed/20250904/BTCUSDQMOMENT_20250904.xlsx
+++ b/data_processed/20250904/BTCUSDQMOMENT_20250904.xlsx
@@ -544,19 +544,19 @@
         <v>0.1561643835616438</v>
       </c>
       <c r="D3" t="n">
-        <v>111086.5482204857</v>
+        <v>111079.468651622</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0108489787887318</v>
+        <v>-0.01116071249361237</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1872295317044708</v>
+        <v>0.188395706625901</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.181031059433712</v>
+        <v>-1.222608724358497</v>
       </c>
       <c r="H3" t="n">
-        <v>10.19906408460631</v>
+        <v>10.5472320775076</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -612,19 +612,19 @@
         <v>0.3095890410958904</v>
       </c>
       <c r="D5" t="n">
-        <v>112446.8012617622</v>
+        <v>112446.9664152832</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.01943128012150405</v>
+        <v>-0.0194313902090042</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2286629662440883</v>
+        <v>0.2287055213250087</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.310532269865769</v>
+        <v>-1.313600381246777</v>
       </c>
       <c r="H5" t="n">
-        <v>10.37705482425065</v>
+        <v>10.42141036965161</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -680,19 +680,19 @@
         <v>0.4821917808219178</v>
       </c>
       <c r="D7" t="n">
-        <v>113726.3743747535</v>
+        <v>114247.3370773786</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.04140406937243996</v>
+        <v>-0.02394101936143448</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3005762649719448</v>
+        <v>0.2407268286665641</v>
       </c>
       <c r="G7" t="n">
-        <v>-2.025086761131561</v>
+        <v>-1.139285595086238</v>
       </c>
       <c r="H7" t="n">
-        <v>13.36947859587326</v>
+        <v>8.222445247610166</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -714,19 +714,19 @@
         <v>0.7315068493150685</v>
       </c>
       <c r="D8" t="n">
-        <v>114173.9785261752</v>
+        <v>114177.2107535922</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.03440223081580156</v>
+        <v>-0.03435496483924053</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2018729088567885</v>
+        <v>0.2019042775766292</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.245281946398301</v>
+        <v>-1.251704475396882</v>
       </c>
       <c r="H8" t="n">
-        <v>8.737931944074056</v>
+        <v>8.815998366658114</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -748,19 +748,19 @@
         <v>0.8082191780821918</v>
       </c>
       <c r="D9" t="n">
-        <v>115700.2458455966</v>
+        <v>115699.798632709</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.06016136794524492</v>
+        <v>-0.06015601302372368</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3045915880210849</v>
+        <v>0.3045045089566139</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.540382691617794</v>
+        <v>-1.538128228484301</v>
       </c>
       <c r="H9" t="n">
-        <v>9.765535009906518</v>
+        <v>9.746143123177173</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -782,19 +782,19 @@
         <v>1.057534246575343</v>
       </c>
       <c r="D10" t="n">
-        <v>117190.7254123417</v>
+        <v>117188.6288699198</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1018732021083687</v>
+        <v>-0.1029460749259843</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4148617083654865</v>
+        <v>0.4226795384216328</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.783744012210249</v>
+        <v>-1.885997630692881</v>
       </c>
       <c r="H10" t="n">
-        <v>8.635802366985811</v>
+        <v>9.500789903146227</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -816,19 +816,19 @@
         <v>1.304109589041096</v>
       </c>
       <c r="D11" t="n">
-        <v>119055.5466518932</v>
+        <v>119043.3840067312</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1656364761742672</v>
+        <v>-0.1729122259264516</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6540768958392227</v>
+        <v>0.708835519173359</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.190911673376554</v>
+        <v>-2.463814158598304</v>
       </c>
       <c r="H11" t="n">
-        <v>9.26455838749313</v>
+        <v>11.47676327413394</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -892,19 +892,19 @@
         <v>0.0136986301369863</v>
       </c>
       <c r="D13" t="n">
-        <v>110227.7267600845</v>
+        <v>110252.75002931</v>
       </c>
       <c r="E13" t="n">
-        <v>0.004226963064531788</v>
+        <v>0.006930772844332807</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1863390740540663</v>
+        <v>0.1706857216703247</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.610827736463545</v>
+        <v>-0.7135665547298811</v>
       </c>
       <c r="H13" t="n">
-        <v>16.54907703958716</v>
+        <v>6.170919588763635</v>
       </c>
       <c r="I13" t="n">
         <v>0.2666942839323744</v>

--- a/data_processed/20250904/BTCUSDQMOMENT_20250904.xlsx
+++ b/data_processed/20250904/BTCUSDQMOMENT_20250904.xlsx
@@ -524,10 +524,18 @@
       <c r="H2" t="n">
         <v>7.25798247798682</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0.6477823920864647</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.12955830305827</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.3369637303781599</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.243062783514028</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1110,10 +1118,18 @@
       <c r="H18" t="n">
         <v>7.952550734035643</v>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>0.7047272282350555</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.1165742814116232</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.2694056264471178</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.885961265145619</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">

--- a/data_processed/20250904/BTCUSDQMOMENT_20250904.xlsx
+++ b/data_processed/20250904/BTCUSDQMOMENT_20250904.xlsx
@@ -1160,10 +1160,18 @@
       <c r="H19" t="n">
         <v>45.83537110914045</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0.6842399319549618</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.2163398458498075</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.1645595860744188</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.635073052411303</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1194,10 +1202,18 @@
       <c r="H20" t="n">
         <v>5.310094348048753</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>0.9585908516801056</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.4914461501244363</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.4577586258096178</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.225721949624816</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_processed/20250904/BTCUSDQMOMENT_20250904.xlsx
+++ b/data_processed/20250904/BTCUSDQMOMENT_20250904.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>10.5472320775076</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>0.655420508356823</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5387434162345179</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.580364417305138</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.860943871911835</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
